--- a/backend/src/Templates/cronograma_plantilla_pdf.xlsx
+++ b/backend/src/Templates/cronograma_plantilla_pdf.xlsx
@@ -1200,29 +1200,35 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>521640</xdr:colOff>
+      <xdr:colOff>306360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1219680</xdr:colOff>
+      <xdr:colOff>1101600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215640</xdr:rowOff>
+      <xdr:rowOff>209160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 1" descr=""/>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="521640" y="68760"/>
-          <a:ext cx="698040" cy="587520"/>
+          <a:off x="306360" y="0"/>
+          <a:ext cx="795240" cy="649800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,8 +1423,8 @@
   </sheetPr>
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2643,36 +2649,48 @@
       <c r="R21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N22" s="26" t="s">
+      <c r="J22" s="26" t="s">
         <v>269</v>
       </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="1"/>
@@ -2680,18 +2698,20 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="N25" s="27" t="s">
+      <c r="J25" s="27" t="s">
         <v>270</v>
       </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="1"/>
@@ -2699,18 +2719,20 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="N26" s="26" t="s">
+      <c r="J26" s="26" t="s">
         <v>271</v>
       </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N27" s="23"/>
@@ -2735,9 +2757,9 @@
     <mergeCell ref="B7:AF7"/>
     <mergeCell ref="B18:W18"/>
     <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="N22:U22"/>
-    <mergeCell ref="N25:U25"/>
-    <mergeCell ref="N26:U26"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J26:Q26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.35" right="0.290277777777778" top="0.5" bottom="0.2" header="0.511811023622047" footer="0.511811023622047"/>

--- a/backend/src/Templates/cronograma_plantilla_pdf.xlsx
+++ b/backend/src/Templates/cronograma_plantilla_pdf.xlsx
@@ -826,7 +826,7 @@
     <t xml:space="preserve">{8_31}</t>
   </si>
   <si>
-    <t xml:space="preserve">D=DESINSECTACIÓN, I=DESINFECCION, R=DESRATIZACIÓN, F=FUMIGACIÓN, T=LIMPIEZA DE TANQUE</t>
+    <t xml:space="preserve">{service_labels}</t>
   </si>
   <si>
     <t xml:space="preserve">ATENTAMENTE</t>
@@ -1010,7 +1010,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1117,6 +1117,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1206,9 +1210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1101600</xdr:colOff>
+      <xdr:colOff>1100880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>209160</xdr:rowOff>
+      <xdr:rowOff>208440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1228,7 +1232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="0"/>
-          <a:ext cx="795240" cy="649800"/>
+          <a:ext cx="794520" cy="649080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1423,11 +1427,11 @@
   </sheetPr>
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="2" style="2" width="4.14"/>
@@ -2659,10 +2663,10 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="23"/>
@@ -2673,10 +2677,10 @@
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="0"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="23"/>
@@ -2687,10 +2691,10 @@
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="0"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="1"/>
@@ -2698,20 +2702,20 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="0"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="1"/>
@@ -2729,10 +2733,10 @@
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="0"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N27" s="23"/>

--- a/backend/src/Templates/cronograma_plantilla_pdf.xlsx
+++ b/backend/src/Templates/cronograma_plantilla_pdf.xlsx
@@ -1201,22 +1201,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>306360</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1100880</xdr:colOff>
+      <xdr:colOff>1104480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:rowOff>215280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPr id="0" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1231,8 +1231,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="306360" y="0"/>
-          <a:ext cx="794520" cy="649080"/>
+          <a:off x="301680" y="0"/>
+          <a:ext cx="802800" cy="655920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1427,11 +1427,11 @@
   </sheetPr>
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="340" zoomScaleNormal="340" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="2" style="2" width="4.14"/>
